--- a/Prepared_Links/Subjects_Concepts_Links.xlsx
+++ b/Prepared_Links/Subjects_Concepts_Links.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GATE\GATE_CS_2021\Prepared_Links\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2D61E75-1A03-4648-8022-D5356FDCF408}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78083569-E9EF-4507-A15B-BD22E10A8798}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="59">
   <si>
     <t>Chapter</t>
   </si>
@@ -190,6 +190,28 @@
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=58N2N7zJGrQ&amp;list=PLBlnK6fEyqRgp46KUv4ZY69yXmpwKOIev</t>
+  </si>
+  <si>
+    <t>Fintite Automata</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=dBwx2PVicTY&amp;t=271s</t>
+  </si>
+  <si>
+    <t>Conversion from 
+FA to Reg Exp
+State Elimination Method</t>
+  </si>
+  <si>
+    <t>PushDown Automata</t>
+  </si>
+  <si>
+    <t>Transition Functions 
+Examples</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=F7x-uSuYgC4
+https://www.youtube.com/watch?v=-2E2QPeJvN4</t>
   </si>
 </sst>
 </file>
@@ -242,7 +264,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -262,19 +284,25 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -585,24 +613,24 @@
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
     </row>
-    <row r="3" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="11" t="s">
+    <row r="3" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="10" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="11"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
+    <row r="4" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="9"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="14" t="s">
         <v>3</v>
       </c>
       <c r="B5" t="s">
@@ -613,7 +641,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="8"/>
+      <c r="A6" s="14"/>
       <c r="B6" t="s">
         <v>5</v>
       </c>
@@ -746,11 +774,11 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="10" t="s">
+    <row r="2" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="15" t="s">
         <v>34</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -758,8 +786,8 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="10"/>
-      <c r="B3" s="10"/>
+      <c r="A3" s="15"/>
+      <c r="B3" s="15"/>
       <c r="C3" s="1" t="s">
         <v>33</v>
       </c>
@@ -877,16 +905,18 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C757A39D-D64E-46AA-AAE0-51B2DBCB011A}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.109375" customWidth="1"/>
     <col min="3" max="3" width="83.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -911,11 +941,35 @@
         <v>52</v>
       </c>
     </row>
+    <row r="5" spans="1:3" s="6" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" s="6" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C3" r:id="rId1" xr:uid="{A5525D67-7309-4343-96F9-94C060CED345}"/>
+    <hyperlink ref="C5" r:id="rId2" xr:uid="{8FCB83DF-59C9-49F9-B59A-BCAF7324EB21}"/>
+    <hyperlink ref="C7" r:id="rId3" display="https://www.youtube.com/watch?v=F7x-uSuYgC4" xr:uid="{D5F20117-E69C-4DFE-9AFF-AD569F447347}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId4"/>
 </worksheet>
 </file>
--- a/Prepared_Links/Subjects_Concepts_Links.xlsx
+++ b/Prepared_Links/Subjects_Concepts_Links.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GATE\GATE_CS_2021\Prepared_Links\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78083569-E9EF-4507-A15B-BD22E10A8798}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FAAA96A-15B5-4951-A557-BD9427CEF13F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4980" yWindow="1044" windowWidth="18060" windowHeight="11460" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DLD" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="62">
   <si>
     <t>Chapter</t>
   </si>
@@ -212,6 +212,15 @@
   <si>
     <t>https://www.youtube.com/watch?v=F7x-uSuYgC4
 https://www.youtube.com/watch?v=-2E2QPeJvN4</t>
+  </si>
+  <si>
+    <t>Linear Bound Automata</t>
+  </si>
+  <si>
+    <t>CSG &amp; CSL</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=i3c_2c2KFpY</t>
   </si>
 </sst>
 </file>
@@ -905,15 +914,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C757A39D-D64E-46AA-AAE0-51B2DBCB011A}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.109375" customWidth="1"/>
     <col min="3" max="3" width="83.21875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22" bestFit="1" customWidth="1"/>
@@ -963,13 +972,25 @@
         <v>58</v>
       </c>
     </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>59</v>
+      </c>
+      <c r="B10" t="s">
+        <v>60</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C3" r:id="rId1" xr:uid="{A5525D67-7309-4343-96F9-94C060CED345}"/>
     <hyperlink ref="C5" r:id="rId2" xr:uid="{8FCB83DF-59C9-49F9-B59A-BCAF7324EB21}"/>
     <hyperlink ref="C7" r:id="rId3" display="https://www.youtube.com/watch?v=F7x-uSuYgC4" xr:uid="{D5F20117-E69C-4DFE-9AFF-AD569F447347}"/>
+    <hyperlink ref="C10" r:id="rId4" xr:uid="{744BDDB4-EC26-4C53-B62F-9EB1E168A333}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId4"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId5"/>
 </worksheet>
 </file>
--- a/Prepared_Links/Subjects_Concepts_Links.xlsx
+++ b/Prepared_Links/Subjects_Concepts_Links.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GATE\GATE_CS_2021\Prepared_Links\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FAAA96A-15B5-4951-A557-BD9427CEF13F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D215AEA0-9F0A-42DE-A1EB-94096BC71A69}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4980" yWindow="1044" windowWidth="18060" windowHeight="11460" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DLD" sheetId="1" r:id="rId1"/>
     <sheet name="DAA" sheetId="2" r:id="rId2"/>
     <sheet name="C &amp; DS" sheetId="3" r:id="rId3"/>
     <sheet name="TOC" sheetId="4" r:id="rId4"/>
+    <sheet name="CD" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="64">
   <si>
     <t>Chapter</t>
   </si>
@@ -221,6 +222,12 @@
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=i3c_2c2KFpY</t>
+  </si>
+  <si>
+    <t>Book</t>
+  </si>
+  <si>
+    <t>..\Prepared_Books\Alfred V. Aho, Monica S. Lam, Ravi Sethi, Jeffrey D. Ullman-Compilers - Principles, Techniques, and Tools-Pearson_Addison Wesley (2006).pdf</t>
   </si>
 </sst>
 </file>
@@ -916,8 +923,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C757A39D-D64E-46AA-AAE0-51B2DBCB011A}">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -993,4 +1000,45 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCD7F91D-C200-4A05-BE96-72024D666C01}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="134" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{602D0923-A61C-402B-8BD5-EFE540C13BDA}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
 </file>
--- a/Prepared_Links/Subjects_Concepts_Links.xlsx
+++ b/Prepared_Links/Subjects_Concepts_Links.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GATE\GATE_CS_2021\Prepared_Links\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D215AEA0-9F0A-42DE-A1EB-94096BC71A69}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8554251-833A-4281-B740-1A4478910A7D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3252" yWindow="684" windowWidth="18060" windowHeight="11460" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DLD" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="78">
   <si>
     <t>Chapter</t>
   </si>
@@ -228,6 +228,48 @@
   </si>
   <si>
     <t>..\Prepared_Books\Alfred V. Aho, Monica S. Lam, Ravi Sethi, Jeffrey D. Ullman-Compilers - Principles, Techniques, and Tools-Pearson_Addison Wesley (2006).pdf</t>
+  </si>
+  <si>
+    <t>Youtube Playlist</t>
+  </si>
+  <si>
+    <t>RavindraBabu Ravula</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Qkwj65l_96I&amp;list=PLEbnTDJUr_IcPtUXFy2b1sGRPsLFMghhS</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/playlist?list=PLbRMhDVUMngcseCW7wXDvtTDemCuH80fP</t>
+  </si>
+  <si>
+    <t>IIT Kharagpur</t>
+  </si>
+  <si>
+    <t>RunTime Environments</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=3kKCeIwHUHY&amp;list=PLbRMhDVUMngcseCW7wXDvtTDemCuH80fP&amp;index=50</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=-G5aPgAgZxU&amp;list=PLbRMhDVUMngcseCW7wXDvtTDemCuH80fP&amp;index=49</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=RS822U7naxQ&amp;list=PLbRMhDVUMngcseCW7wXDvtTDemCuH80fP&amp;index=48</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=uVaY1eKI2WY&amp;list=PLbRMhDVUMngcseCW7wXDvtTDemCuH80fP&amp;index=47</t>
+  </si>
+  <si>
+    <t>Intro</t>
+  </si>
+  <si>
+    <t>Display</t>
+  </si>
+  <si>
+    <t>with Local Procedures</t>
+  </si>
+  <si>
+    <t>without Local Procedures</t>
   </si>
 </sst>
 </file>
@@ -1004,14 +1046,16 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCD7F91D-C200-4A05-BE96-72024D666C01}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="134" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1032,6 +1076,63 @@
       </c>
       <c r="C2" s="1" t="s">
         <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>77</v>
+      </c>
+      <c r="C8" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>75</v>
+      </c>
+      <c r="C10" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/Prepared_Links/Subjects_Concepts_Links.xlsx
+++ b/Prepared_Links/Subjects_Concepts_Links.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GATE\GATE_CS_2021\Prepared_Links\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8554251-833A-4281-B740-1A4478910A7D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96D2FBAC-603E-41BF-937B-987A13F0FBC1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3252" yWindow="684" windowWidth="18060" windowHeight="11460" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DLD" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="93">
   <si>
     <t>Chapter</t>
   </si>
@@ -270,6 +270,51 @@
   </si>
   <si>
     <t>without Local Procedures</t>
+  </si>
+  <si>
+    <t>Intermediate Code</t>
+  </si>
+  <si>
+    <t>Three Address code</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=yFVCw0N0nxo&amp;ab_channel=SudhakarAtchala</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=sv5Qmq8Hjz4&amp;t=140s&amp;ab_channel=SudhakarAtchala</t>
+  </si>
+  <si>
+    <t>Quadrples, Triples,Indirect Triples</t>
+  </si>
+  <si>
+    <t>Code Optimization</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=yHZFVz6TVmI&amp;list=PLXj4XH7LcRfC9pGMWuM6UWE3V4YZ9TZzM&amp;index=51&amp;ab_channel=SudhakarAtchala</t>
+  </si>
+  <si>
+    <t>Constant Propagation</t>
+  </si>
+  <si>
+    <t>Common Subexpression Elimination</t>
+  </si>
+  <si>
+    <t>https://www.gatevidyalay.com/code-optimization-techniques/</t>
+  </si>
+  <si>
+    <t>Reading Material</t>
+  </si>
+  <si>
+    <t>Data-Flow-Analysis</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=OROXJ9-wUQE&amp;t=1600s&amp;ab_channel=MayurNaik</t>
+  </si>
+  <si>
+    <t>Tutorials Point</t>
+  </si>
+  <si>
+    <t>https://youtu.be/0hU5-aLtaxo</t>
   </si>
 </sst>
 </file>
@@ -1046,16 +1091,16 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCD7F91D-C200-4A05-BE96-72024D666C01}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="19.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.21875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="134" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1100,6 +1145,17 @@
         <v>67</v>
       </c>
     </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C5" t="s">
+        <v>92</v>
+      </c>
+    </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>69</v>
@@ -1135,7 +1191,62 @@
         <v>70</v>
       </c>
     </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>78</v>
+      </c>
+      <c r="B12" t="s">
+        <v>79</v>
+      </c>
+      <c r="C12" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>82</v>
+      </c>
+      <c r="C13" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>83</v>
+      </c>
+      <c r="B15" t="s">
+        <v>85</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>86</v>
+      </c>
+      <c r="C16" s="14"/>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>88</v>
+      </c>
+      <c r="C17" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>89</v>
+      </c>
+      <c r="C19" t="s">
+        <v>90</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C15:C16"/>
+  </mergeCells>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{602D0923-A61C-402B-8BD5-EFE540C13BDA}"/>
   </hyperlinks>

--- a/Prepared_Links/Subjects_Concepts_Links.xlsx
+++ b/Prepared_Links/Subjects_Concepts_Links.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GATE\GATE_CS_2021\Prepared_Links\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96D2FBAC-603E-41BF-937B-987A13F0FBC1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0B819AF-23EA-4C8B-AE6E-69EF736ACC1D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DLD" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="C &amp; DS" sheetId="3" r:id="rId3"/>
     <sheet name="TOC" sheetId="4" r:id="rId4"/>
     <sheet name="CD" sheetId="5" r:id="rId5"/>
+    <sheet name="CN" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="102">
   <si>
     <t>Chapter</t>
   </si>
@@ -315,6 +316,34 @@
   </si>
   <si>
     <t>https://youtu.be/0hU5-aLtaxo</t>
+  </si>
+  <si>
+    <t>DAG of Basic Blocks</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=fAjIlKmCuUY&amp;ab_channel=SudhakarAtchala</t>
+  </si>
+  <si>
+    <t>All together</t>
+  </si>
+  <si>
+    <t>http://www.rhyshaden.com/</t>
+  </si>
+  <si>
+    <t>Congestion Control in Packet
+Switched Networks</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ZYIdYIt7W_g&amp;ab_channel=nptelhrd</t>
+  </si>
+  <si>
+    <t>Congestion Control in TCP</t>
+  </si>
+  <si>
+    <t>Congestion Control</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Hqc71hcl-Ac</t>
   </si>
 </sst>
 </file>
@@ -367,7 +396,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -401,10 +430,16 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -733,7 +768,7 @@
       <c r="C4" s="9"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="15" t="s">
         <v>3</v>
       </c>
       <c r="B5" t="s">
@@ -744,7 +779,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="14"/>
+      <c r="A6" s="15"/>
       <c r="B6" t="s">
         <v>5</v>
       </c>
@@ -878,10 +913,10 @@
       </c>
     </row>
     <row r="2" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="16" t="s">
         <v>34</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -889,8 +924,8 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="15"/>
-      <c r="B3" s="15"/>
+      <c r="A3" s="16"/>
+      <c r="B3" s="16"/>
       <c r="C3" s="1" t="s">
         <v>33</v>
       </c>
@@ -1091,10 +1126,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCD7F91D-C200-4A05-BE96-72024D666C01}">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1217,7 +1252,7 @@
       <c r="B15" t="s">
         <v>85</v>
       </c>
-      <c r="C15" s="14" t="s">
+      <c r="C15" s="15" t="s">
         <v>84</v>
       </c>
     </row>
@@ -1225,7 +1260,7 @@
       <c r="B16" t="s">
         <v>86</v>
       </c>
-      <c r="C16" s="14"/>
+      <c r="C16" s="15"/>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
@@ -1241,6 +1276,14 @@
       </c>
       <c r="C19" t="s">
         <v>90</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>93</v>
+      </c>
+      <c r="C21" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -1253,4 +1296,76 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35654C6F-8054-43D7-A782-339CF9F13D12}">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="19" customWidth="1"/>
+    <col min="2" max="2" width="24.33203125" customWidth="1"/>
+    <col min="3" max="3" width="80.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" s="14" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="16"/>
+    </row>
+    <row r="7" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="16"/>
+      <c r="B7" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>101</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A5:A7"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{7BF5F213-3475-439B-9049-CDB85129253D}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
 </file>
--- a/Prepared_Links/Subjects_Concepts_Links.xlsx
+++ b/Prepared_Links/Subjects_Concepts_Links.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GATE\GATE_CS_2021\Prepared_Links\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0B819AF-23EA-4C8B-AE6E-69EF736ACC1D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1665CEC6-255E-4938-AA34-39EB7907ADFF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4980" yWindow="1044" windowWidth="18060" windowHeight="11460" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DLD" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="110">
   <si>
     <t>Chapter</t>
   </si>
@@ -344,6 +344,30 @@
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=Hqc71hcl-Ac</t>
+  </si>
+  <si>
+    <t>NAT</t>
+  </si>
+  <si>
+    <t>Network Address Translation</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=QBqPzHEDzvo&amp;ab_channel=PieterExplainsTech</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=_MZbwHyE0Ck&amp;ab_channel=IITKharagpurJuly2018</t>
+  </si>
+  <si>
+    <t>https://youtu.be/lnS7p0LILq8</t>
+  </si>
+  <si>
+    <t>AIMD &amp; Slow Start</t>
+  </si>
+  <si>
+    <t>https://book.systemsapproach.org/congestion/tcpcc.html</t>
+  </si>
+  <si>
+    <t>https://web.cs.wpi.edu/~rek/Undergrad_Nets/B05/TCP_Congestion_Control.ppt</t>
   </si>
 </sst>
 </file>
@@ -396,7 +420,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -428,6 +452,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -768,7 +798,7 @@
       <c r="C4" s="9"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="17" t="s">
         <v>3</v>
       </c>
       <c r="B5" t="s">
@@ -779,7 +809,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="15"/>
+      <c r="A6" s="17"/>
       <c r="B6" t="s">
         <v>5</v>
       </c>
@@ -913,10 +943,10 @@
       </c>
     </row>
     <row r="2" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="18" t="s">
         <v>34</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -924,8 +954,8 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="16"/>
-      <c r="B3" s="16"/>
+      <c r="A3" s="18"/>
+      <c r="B3" s="18"/>
       <c r="C3" s="1" t="s">
         <v>33</v>
       </c>
@@ -1252,7 +1282,7 @@
       <c r="B15" t="s">
         <v>85</v>
       </c>
-      <c r="C15" s="15" t="s">
+      <c r="C15" s="17" t="s">
         <v>84</v>
       </c>
     </row>
@@ -1260,7 +1290,7 @@
       <c r="B16" t="s">
         <v>86</v>
       </c>
-      <c r="C16" s="15"/>
+      <c r="C16" s="17"/>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
@@ -1300,10 +1330,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35654C6F-8054-43D7-A782-339CF9F13D12}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C6" sqref="C6:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1336,10 +1366,10 @@
       </c>
     </row>
     <row r="5" spans="1:3" s="14" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="15" t="s">
         <v>97</v>
       </c>
       <c r="C5" s="14" t="s">
@@ -1347,20 +1377,58 @@
       </c>
     </row>
     <row r="6" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="16"/>
+      <c r="A6" s="18"/>
+      <c r="B6" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="7" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="16"/>
-      <c r="B7" s="17" t="s">
-        <v>99</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>101</v>
+      <c r="A7" s="18"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="16" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B9" s="19"/>
+      <c r="C9" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>102</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="C11" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B12" s="18"/>
+      <c r="C12" t="s">
+        <v>105</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="4">
     <mergeCell ref="A5:A7"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B6:B7"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{7BF5F213-3475-439B-9049-CDB85129253D}"/>

--- a/Prepared_Links/Subjects_Concepts_Links.xlsx
+++ b/Prepared_Links/Subjects_Concepts_Links.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GATE\GATE_CS_2021\Prepared_Links\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1665CEC6-255E-4938-AA34-39EB7907ADFF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F8CA2CB-9D69-47A4-B54E-6507C27802D5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4980" yWindow="1044" windowWidth="18060" windowHeight="11460" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DLD" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="120">
   <si>
     <t>Chapter</t>
   </si>
@@ -340,15 +340,9 @@
     <t>Congestion Control in TCP</t>
   </si>
   <si>
-    <t>Congestion Control</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=Hqc71hcl-Ac</t>
   </si>
   <si>
-    <t>NAT</t>
-  </si>
-  <si>
     <t>Network Address Translation</t>
   </si>
   <si>
@@ -368,6 +362,44 @@
   </si>
   <si>
     <t>https://web.cs.wpi.edu/~rek/Undergrad_Nets/B05/TCP_Congestion_Control.ppt</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UC9KOS69Po018NGKJsR2RgrA/playlists?view=50&amp;sort=dd&amp;shelf_id=2</t>
+  </si>
+  <si>
+    <t>Most useful concepts</t>
+  </si>
+  <si>
+    <t>Ethernet Bridging or Switching</t>
+  </si>
+  <si>
+    <t>https://youtu.be/14pBLzzHnzU</t>
+  </si>
+  <si>
+    <t>Spanninng Tree</t>
+  </si>
+  <si>
+    <t>https://youtu.be/JgApAnUQ1Ss</t>
+  </si>
+  <si>
+    <t>https://youtu.be/s_xSIdBjagc</t>
+  </si>
+  <si>
+    <t>https://gateoverflow.in/1855/gate2006-82</t>
+  </si>
+  <si>
+    <t>Prev GATE Question</t>
+  </si>
+  <si>
+    <t>Network Layer</t>
+  </si>
+  <si>
+    <t>Network Layer
+&amp;
+Transport Layer</t>
+  </si>
+  <si>
+    <t>Data Link Layer</t>
   </si>
 </sst>
 </file>
@@ -420,7 +452,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -470,6 +502,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1330,17 +1365,17 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35654C6F-8054-43D7-A782-339CF9F13D12}">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6:C7"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
-    <col min="2" max="2" width="24.33203125" customWidth="1"/>
-    <col min="3" max="3" width="80.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="114.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -1365,9 +1400,17 @@
         <v>96</v>
       </c>
     </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C3" t="s">
+        <v>108</v>
+      </c>
+    </row>
     <row r="5" spans="1:3" s="14" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="18" t="s">
-        <v>100</v>
+      <c r="A5" s="19" t="s">
+        <v>118</v>
       </c>
       <c r="B5" s="15" t="s">
         <v>97</v>
@@ -1382,53 +1425,93 @@
         <v>99</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="18"/>
       <c r="B7" s="19"/>
       <c r="C7" s="16" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="8" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B8" s="19" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B9" s="19"/>
       <c r="C9" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+      <c r="A11" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="C11" t="s">
         <v>102</v>
       </c>
-      <c r="B11" s="18" t="s">
-        <v>103</v>
-      </c>
-      <c r="C11" t="s">
-        <v>104</v>
-      </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="20"/>
       <c r="B12" s="18"/>
       <c r="C12" t="s">
-        <v>105</v>
+        <v>103</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="B14" t="s">
+        <v>110</v>
+      </c>
+      <c r="C14" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="18"/>
+      <c r="B15" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="C15" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="18"/>
+      <c r="B16" s="18"/>
+      <c r="C16" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="18"/>
+      <c r="B17" t="s">
+        <v>116</v>
+      </c>
+      <c r="C17" t="s">
+        <v>115</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="7">
     <mergeCell ref="A5:A7"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="A11:A12"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{7BF5F213-3475-439B-9049-CDB85129253D}"/>

--- a/Prepared_Links/Subjects_Concepts_Links.xlsx
+++ b/Prepared_Links/Subjects_Concepts_Links.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GATE\GATE_CS_2021\Prepared_Links\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F8CA2CB-9D69-47A4-B54E-6507C27802D5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45DD731D-8F14-4AE4-8CD2-12B2DDC10134}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="123">
   <si>
     <t>Chapter</t>
   </si>
@@ -400,6 +400,15 @@
   </si>
   <si>
     <t>Data Link Layer</t>
+  </si>
+  <si>
+    <t>Problems</t>
+  </si>
+  <si>
+    <t>RBR solutions</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/playlist?list=PLEbnTDJUr_If_GCGDEOYensUC5Ur-L9MR</t>
   </si>
 </sst>
 </file>
@@ -1365,10 +1374,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35654C6F-8054-43D7-A782-339CF9F13D12}">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:A17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1408,110 +1417,121 @@
         <v>108</v>
       </c>
     </row>
-    <row r="5" spans="1:3" s="14" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="19" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>120</v>
+      </c>
+      <c r="B4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" s="14" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B6" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C6" s="14" t="s">
         <v>98</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="18"/>
-      <c r="B6" s="19" t="s">
-        <v>99</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="18"/>
-      <c r="B7" s="19"/>
-      <c r="C7" s="16" t="s">
+      <c r="B7" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="18"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="16" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="8" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="19" t="s">
+    <row r="9" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C9" s="16" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B9" s="19"/>
-      <c r="C9" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B10" s="19"/>
+      <c r="C10" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="20" t="s">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B12" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C12" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="20"/>
-      <c r="B12" s="18"/>
-      <c r="C12" t="s">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="20"/>
+      <c r="B13" s="18"/>
+      <c r="C13" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="18" t="s">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B15" t="s">
         <v>110</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C15" t="s">
         <v>111</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="18"/>
-      <c r="B15" s="18" t="s">
-        <v>112</v>
-      </c>
-      <c r="C15" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="18"/>
-      <c r="B16" s="18"/>
+      <c r="B16" s="18" t="s">
+        <v>112</v>
+      </c>
       <c r="C16" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="18"/>
-      <c r="B17" t="s">
+      <c r="B17" s="18"/>
+      <c r="C17" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="18"/>
+      <c r="B18" t="s">
         <v>116</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C18" t="s">
         <v>115</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="A12:A13"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{7BF5F213-3475-439B-9049-CDB85129253D}"/>

--- a/Prepared_Links/Subjects_Concepts_Links.xlsx
+++ b/Prepared_Links/Subjects_Concepts_Links.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GATE\GATE_CS_2021\Prepared_Links\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45DD731D-8F14-4AE4-8CD2-12B2DDC10134}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F24FFFA-81A2-4C3A-941D-F07DB71590B9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="128">
   <si>
     <t>Chapter</t>
   </si>
@@ -409,6 +409,21 @@
   </si>
   <si>
     <t>https://www.youtube.com/playlist?list=PLEbnTDJUr_If_GCGDEOYensUC5Ur-L9MR</t>
+  </si>
+  <si>
+    <t>Noisy vs Noiseless</t>
+  </si>
+  <si>
+    <t>Maximum Data rate</t>
+  </si>
+  <si>
+    <t>Bit rate vs Baud rate</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/difference-btween-bit-rate-and-baud-rate/?ref=lbp</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/maximum-data-rate-channel-capacity-for-noiseless-and-noisy-channels/?ref=lbp</t>
   </si>
 </sst>
 </file>
@@ -1374,10 +1389,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35654C6F-8054-43D7-A782-339CF9F13D12}">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1521,6 +1536,25 @@
       </c>
       <c r="C18" t="s">
         <v>115</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
+        <v>125</v>
+      </c>
+      <c r="C23" t="s">
+        <v>126</v>
       </c>
     </row>
   </sheetData>

--- a/Prepared_Links/Subjects_Concepts_Links.xlsx
+++ b/Prepared_Links/Subjects_Concepts_Links.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GATE\GATE_CS_2021\Prepared_Links\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F24FFFA-81A2-4C3A-941D-F07DB71590B9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F42014E4-6F4B-4700-BF33-7E7B54F75AB8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,6 +19,8 @@
     <sheet name="TOC" sheetId="4" r:id="rId4"/>
     <sheet name="CD" sheetId="5" r:id="rId5"/>
     <sheet name="CN" sheetId="6" r:id="rId6"/>
+    <sheet name="OS" sheetId="7" r:id="rId7"/>
+    <sheet name="DBMS" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="136">
   <si>
     <t>Chapter</t>
   </si>
@@ -424,6 +426,30 @@
   </si>
   <si>
     <t>https://www.geeksforgeeks.org/maximum-data-rate-channel-capacity-for-noiseless-and-noisy-channels/?ref=lbp</t>
+  </si>
+  <si>
+    <t>Process Management</t>
+  </si>
+  <si>
+    <t>Schedling Algorithms</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/playlist?list=PLEbnTDJUr_If_BnzJkkN_J0Tl3iXTL8vq</t>
+  </si>
+  <si>
+    <t>Article from JavaTpoint</t>
+  </si>
+  <si>
+    <t>https://www.javatpoint.com/os-tutorial</t>
+  </si>
+  <si>
+    <t>LAN</t>
+  </si>
+  <si>
+    <t>http://www.cs.montana.edu/~halla/csci466/lectures/lec10-2.7-token.html</t>
+  </si>
+  <si>
+    <t>Token Ring (**Priority Scheme)</t>
   </si>
 </sst>
 </file>
@@ -1389,16 +1415,16 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35654C6F-8054-43D7-A782-339CF9F13D12}">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
-    <col min="2" max="2" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="114.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1555,6 +1581,17 @@
       </c>
       <c r="C23" t="s">
         <v>126</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>133</v>
+      </c>
+      <c r="B25" t="s">
+        <v>135</v>
+      </c>
+      <c r="C25" t="s">
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -1573,4 +1610,83 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D0BDCB1-D058-47BA-8C94-2B2AC8796618}">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="66" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>128</v>
+      </c>
+      <c r="B6" t="s">
+        <v>129</v>
+      </c>
+      <c r="C6" t="s">
+        <v>130</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{180D80CD-E20F-4904-A414-A2AD6878D6F6}">
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Prepared_Links/Subjects_Concepts_Links.xlsx
+++ b/Prepared_Links/Subjects_Concepts_Links.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GATE\GATE_CS_2021\Prepared_Links\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F42014E4-6F4B-4700-BF33-7E7B54F75AB8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{265B1D83-C215-42C1-AD37-C495E3844BBE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4980" yWindow="1044" windowWidth="18060" windowHeight="11460" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DLD" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="159">
   <si>
     <t>Chapter</t>
   </si>
@@ -450,6 +450,76 @@
   </si>
   <si>
     <t>Token Ring (**Priority Scheme)</t>
+  </si>
+  <si>
+    <t>Relation Model</t>
+  </si>
+  <si>
+    <t>Types of Keys</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/types-of-keys-in-relational-model-candidate-super-primary-alternate-and-foreign/</t>
+  </si>
+  <si>
+    <t>Joins</t>
+  </si>
+  <si>
+    <t>https://www.guru99.com/joins-sql-left-right.html</t>
+  </si>
+  <si>
+    <t>Relatioinal Calculus</t>
+  </si>
+  <si>
+    <t>Relational Algebra</t>
+  </si>
+  <si>
+    <t>DRC</t>
+  </si>
+  <si>
+    <t>https://beginnersbook.com/2019/02/dbms-relational-calculus/</t>
+  </si>
+  <si>
+    <t>Process Synchronization</t>
+  </si>
+  <si>
+    <t>User &amp; Kernal Modes</t>
+  </si>
+  <si>
+    <t>https://www.tutorialspoint.com/User-Mode-vs-Kernel-Mode</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=s6MH7f3SnsY&amp;list=PLxCzCOWd7aiFAN6I8CuViBuCdJgiOkT2Y&amp;index=16</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=rZxETdO_KUQ&amp;list=PLxCzCOWd7aiFAN6I8CuViBuCdJgiOkT2Y&amp;index=17</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=onR_sLhbZ4w&amp;list=PLxCzCOWd7aiFAN6I8CuViBuCdJgiOkT2Y&amp;index=18</t>
+  </si>
+  <si>
+    <t>1 to 1</t>
+  </si>
+  <si>
+    <t>1 to M</t>
+  </si>
+  <si>
+    <t>M to N</t>
+  </si>
+  <si>
+    <t>Relationships &amp;
+Minimum Tables</t>
+  </si>
+  <si>
+    <t>Video Content</t>
+  </si>
+  <si>
+    <t>GATE SMASHERS</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/playlist?list=PLxCzCOWd7aiFAN6I8CuViBuCdJgiOkT2Y</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/minimization-of-er-diagrams/</t>
   </si>
 </sst>
 </file>
@@ -502,7 +572,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -544,6 +614,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -883,7 +954,7 @@
       <c r="C4" s="9"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="18" t="s">
         <v>3</v>
       </c>
       <c r="B5" t="s">
@@ -894,7 +965,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="17"/>
+      <c r="A6" s="18"/>
       <c r="B6" t="s">
         <v>5</v>
       </c>
@@ -1006,7 +1077,7 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1028,10 +1099,10 @@
       </c>
     </row>
     <row r="2" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="19" t="s">
         <v>34</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -1039,8 +1110,8 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="18"/>
-      <c r="B3" s="18"/>
+      <c r="A3" s="19"/>
+      <c r="B3" s="19"/>
       <c r="C3" s="1" t="s">
         <v>33</v>
       </c>
@@ -1112,7 +1183,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1367,7 +1438,7 @@
       <c r="B15" t="s">
         <v>85</v>
       </c>
-      <c r="C15" s="17" t="s">
+      <c r="C15" s="18" t="s">
         <v>84</v>
       </c>
     </row>
@@ -1375,7 +1446,7 @@
       <c r="B16" t="s">
         <v>86</v>
       </c>
-      <c r="C16" s="17"/>
+      <c r="C16" s="18"/>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
@@ -1417,7 +1488,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35654C6F-8054-43D7-A782-339CF9F13D12}">
   <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
@@ -1470,7 +1541,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" s="14" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="20" t="s">
         <v>118</v>
       </c>
       <c r="B6" s="15" t="s">
@@ -1481,8 +1552,8 @@
       </c>
     </row>
     <row r="7" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="18"/>
-      <c r="B7" s="19" t="s">
+      <c r="A7" s="19"/>
+      <c r="B7" s="20" t="s">
         <v>99</v>
       </c>
       <c r="C7" s="14" t="s">
@@ -1490,14 +1561,14 @@
       </c>
     </row>
     <row r="8" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="18"/>
-      <c r="B8" s="19"/>
+      <c r="A8" s="19"/>
+      <c r="B8" s="20"/>
       <c r="C8" s="16" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="9" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="20" t="s">
         <v>105</v>
       </c>
       <c r="C9" s="16" t="s">
@@ -1505,16 +1576,16 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B10" s="19"/>
+      <c r="B10" s="20"/>
       <c r="C10" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="20" t="s">
+      <c r="A12" s="21" t="s">
         <v>117</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="19" t="s">
         <v>101</v>
       </c>
       <c r="C12" t="s">
@@ -1522,14 +1593,14 @@
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="20"/>
-      <c r="B13" s="18"/>
+      <c r="A13" s="21"/>
+      <c r="B13" s="19"/>
       <c r="C13" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="18" t="s">
+      <c r="A15" s="19" t="s">
         <v>119</v>
       </c>
       <c r="B15" t="s">
@@ -1540,8 +1611,8 @@
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="18"/>
-      <c r="B16" s="18" t="s">
+      <c r="A16" s="19"/>
+      <c r="B16" s="19" t="s">
         <v>112</v>
       </c>
       <c r="C16" t="s">
@@ -1549,14 +1620,14 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="18"/>
-      <c r="B17" s="18"/>
+      <c r="A17" s="19"/>
+      <c r="B17" s="19"/>
       <c r="C17" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="18"/>
+      <c r="A18" s="19"/>
       <c r="B18" t="s">
         <v>116</v>
       </c>
@@ -1614,15 +1685,15 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D0BDCB1-D058-47BA-8C94-2B2AC8796618}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.77734375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="66" bestFit="1" customWidth="1"/>
   </cols>
@@ -1660,6 +1731,17 @@
         <v>130</v>
       </c>
     </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>145</v>
+      </c>
+      <c r="B8" t="s">
+        <v>146</v>
+      </c>
+      <c r="C8" t="s">
+        <v>147</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1667,13 +1749,18 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{180D80CD-E20F-4904-A414-A2AD6878D6F6}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="97" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
@@ -1686,7 +1773,89 @@
         <v>41</v>
       </c>
     </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>136</v>
+      </c>
+      <c r="B5" t="s">
+        <v>137</v>
+      </c>
+      <c r="C5" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="C6" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="20"/>
+      <c r="B7" t="s">
+        <v>152</v>
+      </c>
+      <c r="C7" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="20"/>
+      <c r="B8" t="s">
+        <v>153</v>
+      </c>
+      <c r="C8" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="20"/>
+      <c r="C9" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>142</v>
+      </c>
+      <c r="B11" t="s">
+        <v>139</v>
+      </c>
+      <c r="C11" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>141</v>
+      </c>
+      <c r="B13" t="s">
+        <v>143</v>
+      </c>
+      <c r="C13" t="s">
+        <v>144</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A6:A9"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Prepared_Links/Subjects_Concepts_Links.xlsx
+++ b/Prepared_Links/Subjects_Concepts_Links.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GATE\GATE_CS_2021\Prepared_Links\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{265B1D83-C215-42C1-AD37-C495E3844BBE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41EC169E-0600-4E19-AEB7-0D9028229E9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4980" yWindow="1044" windowWidth="18060" windowHeight="11460" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DLD" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,8 @@
     <sheet name="CN" sheetId="6" r:id="rId6"/>
     <sheet name="OS" sheetId="7" r:id="rId7"/>
     <sheet name="DBMS" sheetId="8" r:id="rId8"/>
+    <sheet name="DM" sheetId="9" r:id="rId9"/>
+    <sheet name="COA" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -32,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="165">
   <si>
     <t>Chapter</t>
   </si>
@@ -520,6 +522,25 @@
   </si>
   <si>
     <t>https://www.geeksforgeeks.org/minimization-of-er-diagrams/</t>
+  </si>
+  <si>
+    <t>Propositional Logic</t>
+  </si>
+  <si>
+    <t>Free &amp; Bounded Variables
+Scope</t>
+  </si>
+  <si>
+    <t>http://www2.imm.dtu.dk/courses/02286/Slides/FirstOrderLogicSyntaxFreeBoundVarsQuantScopeCaptureSubstRenamingTrans.pdf</t>
+  </si>
+  <si>
+    <t>http://www.pvpsiddhartha.ac.in/dep_it/lecturenotes/CSA/unit-5.pdf</t>
+  </si>
+  <si>
+    <t>I/O interface</t>
+  </si>
+  <si>
+    <t>I/O</t>
   </si>
 </sst>
 </file>
@@ -1072,6 +1093,47 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8793ADEF-D31E-446D-868B-BE1B7CFA5195}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="58" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7E58C2A-E329-4A0A-9EC8-C16EBCEDCA35}">
   <dimension ref="A1:C10"/>
@@ -1751,8 +1813,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{180D80CD-E20F-4904-A414-A2AD6878D6F6}">
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1858,4 +1920,46 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D4EC22D-92B6-4726-82D3-9586C58FAD8D}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="109.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="C3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Prepared_Links/Subjects_Concepts_Links.xlsx
+++ b/Prepared_Links/Subjects_Concepts_Links.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GATE\GATE_CS_2021\Prepared_Links\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41EC169E-0600-4E19-AEB7-0D9028229E9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98A90D2B-9DF1-4052-93E0-00D1676A5EFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="168">
   <si>
     <t>Chapter</t>
   </si>
@@ -537,10 +537,19 @@
     <t>http://www.pvpsiddhartha.ac.in/dep_it/lecturenotes/CSA/unit-5.pdf</t>
   </si>
   <si>
-    <t>I/O interface</t>
-  </si>
-  <si>
-    <t>I/O</t>
+    <t>I/O &amp; Pipelining</t>
+  </si>
+  <si>
+    <t>I/O interface &amp; Pipelining</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Amdahl's_law</t>
+  </si>
+  <si>
+    <t>Memory Interleaving questions</t>
+  </si>
+  <si>
+    <t>Amdhal’s law</t>
   </si>
 </sst>
 </file>
@@ -1095,15 +1104,15 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8793ADEF-D31E-446D-868B-BE1B7CFA5195}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="26.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="58" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1120,13 +1129,24 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B2" t="s">
         <v>164</v>
-      </c>
-      <c r="B2" t="s">
-        <v>163</v>
       </c>
       <c r="C2" t="s">
         <v>162</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>166</v>
+      </c>
+      <c r="B3" t="s">
+        <v>167</v>
+      </c>
+      <c r="C3" t="s">
+        <v>165</v>
       </c>
     </row>
   </sheetData>

--- a/Prepared_Links/Subjects_Concepts_Links.xlsx
+++ b/Prepared_Links/Subjects_Concepts_Links.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GATE\GATE_CS_2021\Prepared_Links\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98A90D2B-9DF1-4052-93E0-00D1676A5EFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7F32602-41B0-4050-B38C-F480D3CC0C54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="175">
   <si>
     <t>Chapter</t>
   </si>
@@ -550,6 +550,27 @@
   </si>
   <si>
     <t>Amdhal’s law</t>
+  </si>
+  <si>
+    <t>Opcode expanding</t>
+  </si>
+  <si>
+    <t>https://www.personal.kent.edu/~aguercio/CS35101Slides/Tanenbaum/CA_Ch05_PartII.pdf</t>
+  </si>
+  <si>
+    <t>Questions</t>
+  </si>
+  <si>
+    <t>http://home.ku.edu.tr/comp303/public_html/Lecture7.pdf</t>
+  </si>
+  <si>
+    <t>CPU Time &amp; Clock Cycle</t>
+  </si>
+  <si>
+    <t>http://meseec.ce.rit.edu/eecc550-winter2011/550-12-6-2011.pdf</t>
+  </si>
+  <si>
+    <t>Useful CPU Performance Metrics</t>
   </si>
 </sst>
 </file>
@@ -1104,16 +1125,17 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8793ADEF-D31E-446D-868B-BE1B7CFA5195}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="26.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="58" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="76.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -1149,8 +1171,43 @@
         <v>165</v>
       </c>
     </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>168</v>
+      </c>
+      <c r="B4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C4" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="18" t="s">
+        <v>172</v>
+      </c>
+      <c r="B5" t="s">
+        <v>170</v>
+      </c>
+      <c r="C5" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="18"/>
+      <c r="B6" t="s">
+        <v>174</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A5:A6"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
